--- a/JAVA/集合/HashMap.xlsx
+++ b/JAVA/集合/HashMap.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EBF8DBB1-1509-4A17-899D-D7F79FB9FA1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiun.guo\Desktop\Interview\Interview\JAVA\集合\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F385AE-3768-4176-86E7-0C08C262F37B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24015" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -25,14 +27,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -55,10 +56,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -76,8 +81,873 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="647700"/>
+          <a:ext cx="4857750" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="3429000"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="3429000"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="1714500"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="1771650"/>
+          <a:ext cx="9067800" cy="6962775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>198787</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>142258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AEE4954-529A-471F-9956-F0923A7F829F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="9096375"/>
+          <a:ext cx="9904762" cy="4933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>208328</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>27894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2B523D-06E6-42B0-B3E5-A597A9139422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="14468475"/>
+          <a:ext cx="9771428" cy="5447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>122695</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB1FA54-80FF-42E0-A610-97012C33ED6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="180975"/>
+          <a:ext cx="9038095" cy="571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>113088</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>75961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8CB53A-BEA3-44BA-8268-66111DFF8230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="21478875"/>
+          <a:ext cx="9695238" cy="1914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="https://camo.githubusercontent.com/9a3802133cca2d82f09198eadcb9987a8f099108/68747470733a2f2f6e6f74652e796f7564616f2e636f6d2f7977732f7075626c69632f7265736f757263652f65346365633635383833643966646332346566666261353764636661353234312f786d6c6e6f74652f34316165643536376533343139653133313462666266363839653332353561322f313932">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{865A1AE2-95AA-4AE8-B314-75F7CF55174E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="24593550"/>
+          <a:ext cx="2476500" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>199352</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>123777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11D780C-DF35-4424-B640-14224AB24D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="23917275"/>
+          <a:ext cx="5380952" cy="380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="https://camo.githubusercontent.com/0d4b2b0e0ee068b647efd26f02d46f679956ab9b/68747470733a2f2f6e6f74652e796f7564616f2e636f6d2f7977732f7075626c69632f7265736f757263652f65346365633635383833643966646332346566666261353764636661353234312f786d6c6e6f74652f66343436323434313963306134393638366662313261613337353237656536352f313931">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCB4E0E-B153-415E-983F-E9ED685D4FEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600075" y="28279725"/>
+          <a:ext cx="6362700" cy="2657475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>56796</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>104718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67008177-7575-4648-B8DD-01FA00AFCA59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="27593925"/>
+          <a:ext cx="2828571" cy="457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="https://camo.githubusercontent.com/139206ac9d37b8caabb43aada2b80e75396c4cb4/68747470733a2f2f6e6f74652e796f7564616f2e636f6d2f7977732f7075626c69632f7265736f757263652f65346365633635383833643966646332346566666261353764636661353234312f786d6c6e6f74652f37393432346232626634613839393032613965383563363436303032363865342f313933">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C0E1EA-4C76-4309-99F7-7ADB05E08E20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="571500" y="31842075"/>
+          <a:ext cx="6381750" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95050</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>9482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BA5F41-03A3-4DFC-BF5F-EA1D66077028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="31213425"/>
+          <a:ext cx="1600000" cy="342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>84515</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>123714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6899FAFC-0B24-49C0-9D52-33FD51200C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="34728150"/>
+          <a:ext cx="9676190" cy="885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>160670</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>113946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3C295B-E9C3-4658-8656-67C8C5F14610}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="37061775"/>
+          <a:ext cx="10038095" cy="2828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>170198</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>151913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401AFB86-32E7-4F5C-9F5C-A876E84F0184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="40662225"/>
+          <a:ext cx="10019048" cy="3895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -87,44 +957,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -154,12 +1024,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -198,142 +1068,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -341,13 +1235,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="F239" sqref="F239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>